--- a/AppQDTAS9/Testdata/abc.xlsx
+++ b/AppQDTAS9/Testdata/abc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6800" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t>lakshmi annam appikatla</t>
   </si>
   <si>
-    <t>APPIKATLAAAAA</t>
+    <t>APPIKATLApush</t>
   </si>
   <si>
     <t>QDTAS</t>
@@ -1150,7 +1150,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1159,7 +1159,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="admin@gmail.com"/>
+    <hyperlink ref="A1" r:id="rId1" display="admin@gmail.com" tooltip="mailto:admin@gmail.com"/>
     <hyperlink ref="A2" r:id="rId2" display="123@Admin"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1202,8 +1202,8 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="3"/>
@@ -1356,7 +1356,7 @@
   <sheetPr/>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/AppQDTAS9/Testdata/abc.xlsx
+++ b/AppQDTAS9/Testdata/abc.xlsx
@@ -104,7 +104,7 @@
     <t>lakshmi annam appikatla</t>
   </si>
   <si>
-    <t>APPIKATLApush</t>
+    <t>APPIKATLApus</t>
   </si>
   <si>
     <t>QDTAS</t>

--- a/AppQDTAS9/Testdata/abc.xlsx
+++ b/AppQDTAS9/Testdata/abc.xlsx
@@ -104,7 +104,7 @@
     <t>lakshmi annam appikatla</t>
   </si>
   <si>
-    <t>APPIKATLApus</t>
+    <t>APPIKATLApuhp</t>
   </si>
   <si>
     <t>QDTAS</t>

--- a/AppQDTAS9/Testdata/abc.xlsx
+++ b/AppQDTAS9/Testdata/abc.xlsx
@@ -47,7 +47,7 @@
     <t>Pushpaa</t>
   </si>
   <si>
-    <t>lakshmii09@gmail.com</t>
+    <t>laksmiiii20199@outlook.com</t>
   </si>
   <si>
     <t>Lakshmi23gmail.com</t>
@@ -83,7 +83,7 @@
     <t>SoftwareTester</t>
   </si>
   <si>
-    <t>fulltime</t>
+    <t>parttime</t>
   </si>
   <si>
     <t>QA</t>
@@ -104,10 +104,10 @@
     <t>lakshmi annam appikatla</t>
   </si>
   <si>
-    <t>APPIKATLApuhp</t>
-  </si>
-  <si>
-    <t>QDTAS</t>
+    <t>annammapppiIII</t>
+  </si>
+  <si>
+    <t>HRM</t>
   </si>
   <si>
     <t>QDTAS#$</t>
@@ -1202,8 +1202,8 @@
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="3"/>
@@ -1341,7 +1341,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="lakshmii09@gmail.com" tooltip="mailto:lakshmii09@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="laksmiiii20199@outlook.com" tooltip="mailto:laksmiiii20199@outlook.com"/>
     <hyperlink ref="A7" r:id="rId2" display="Push123@#" tooltip="mailto:Push123@#"/>
     <hyperlink ref="A8" r:id="rId2" display="Push123@#" tooltip="mailto:Push123@#"/>
     <hyperlink ref="C3" r:id="rId3" display="anam12@#"/>
@@ -1357,7 +1357,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
